--- a/output/plannet-PlanNet-Organization.xlsx
+++ b/output/plannet-PlanNet-Organization.xlsx
@@ -149,7 +149,7 @@
     <t>plannet-PlanNet-Organization</t>
   </si>
   <si>
-    <t>PlanNet-Organization</t>
+    <t>An organization is a formal or informal grouping of people or organizations with a common purpose, such as a company, institution, corporation, community group, or healthcare practice.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -332,6 +332,16 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
+    <t>viaintermediary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-ViaIntermediary-extension}
+</t>
+  </si>
+  <si>
+    <t>ViaIntermediary is a reference to an alternative point of contact for this organization</t>
+  </si>
+  <si>
     <t>geolocation</t>
   </si>
   <si>
@@ -339,7 +349,7 @@
 </t>
   </si>
   <si>
-    <t>GeoLocation</t>
+    <t>GeoLocation indicates the absolute geographic location of an organization’s address</t>
   </si>
   <si>
     <t>availabletime</t>
@@ -349,17 +359,7 @@
 </t>
   </si>
   <si>
-    <t>AvailableTime</t>
-  </si>
-  <si>
-    <t>viaintermediary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/uv/vhdir/StructureDefinition/contactpoint-viaintermediary}
-</t>
-  </si>
-  <si>
-    <t>ViaIntermediary</t>
+    <t>AvailableTime indicates when an organization is available for contact</t>
   </si>
   <si>
     <t>description</t>
@@ -369,7 +369,7 @@
 </t>
   </si>
   <si>
-    <t>Description</t>
+    <t>Description is a  friendly description of the organization</t>
   </si>
   <si>
     <t>qualification</t>
@@ -379,7 +379,7 @@
 </t>
   </si>
   <si>
-    <t>Qualification</t>
+    <t>Qualification indicates whether the organization has any formal qualifications</t>
   </si>
   <si>
     <t>Organization.modifierExtension</t>
@@ -2836,7 +2836,7 @@
         <v>41</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>40</v>
@@ -2945,7 +2945,7 @@
         <v>41</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>40</v>
